--- a/ESE516_SPRING2021_ASSIGNMENT_A1_BOM.xlsx
+++ b/ESE516_SPRING2021_ASSIGNMENT_A1_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>Group Name</t>
   </si>
@@ -170,25 +170,26 @@
     <t>https://www.sparkfun.com/products/18020</t>
   </si>
   <si>
-    <t>OLED screen</t>
+    <t>OLED module</t>
   </si>
   <si>
-    <t>AOM12864A0-1.3WW-ANO</t>
+    <t>LCD-14532</t>
   </si>
   <si>
-    <t>Orient Display</t>
+    <t>SparkFun Electronics</t>
   </si>
   <si>
-    <t>2544-AOM12864A0-1.3WW-ANO-ND</t>
+    <t>1568-1819-ND</t>
   </si>
   <si>
-    <t>SPI</t>
+    <t>operating voltage only, 3.3V</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/product/326#description</t>
+    <t>https://www.digikey.com/en/products/detail/sparkfun-electronics/lcd-14532/8258067</t>
   </si>
   <si>
-    <t>provides Adafruit Dev Board OLED module instead of single screen</t>
+    <t>OLED Module
+We need to use Dev Board, so the Dev board part is same as the component part</t>
   </si>
   <si>
     <t>LiPo Battery</t>
@@ -396,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -451,20 +452,17 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -475,20 +473,14 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -497,6 +489,12 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1072,91 +1070,88 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" ht="53.25" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="7">
-        <v>-0.3</v>
+      <c r="E10" s="18" t="s">
+        <v>54</v>
       </c>
-      <c r="F10" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="G10" s="11">
         <v>20.0</v>
       </c>
-      <c r="H10" s="7">
-        <v>0.1</v>
+      <c r="H10" s="11">
+        <v>10.0</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>54</v>
+      <c r="I10" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="J10" s="7">
         <v>1.0</v>
       </c>
-      <c r="K10" s="18">
-        <v>9.97</v>
+      <c r="K10" s="19">
+        <v>16.95</v>
       </c>
-      <c r="L10" s="17">
-        <v>759.0</v>
+      <c r="L10" s="20" t="s">
+        <v>25</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="10">
-        <v>17.5</v>
+      <c r="N10" s="19">
+        <v>16.95</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>1.0</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="23">
         <v>18.28</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="24">
         <v>13926.48</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="25" t="s">
         <v>63</v>
       </c>
       <c r="N11" s="26">
@@ -1167,96 +1162,96 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="11">
         <v>2.3</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="18">
         <v>1.0</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="28">
         <v>1.73</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="28">
         <v>966.0</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="29">
         <v>0.0</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="O12" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="18">
         <v>3.3</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="18">
         <v>1.0</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="28">
         <v>3.03</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="28">
         <v>2050.0</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="29">
         <v>0.0</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="30" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1291,20 +1286,20 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>43.126</v>
+        <v>53.026</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="K15" s="3">
-        <f>SUM(K5:K10) - K5 - K6</f>
-        <v>63.14</v>
+        <f>SUM(K5:K13) - K5 - K6</f>
+        <v>93.16</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="2"/>
       <c r="N15" s="4">
         <f>SUM(N5:N10)</f>
-        <v>88.26</v>
+        <v>87.71</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -1323,15 +1318,15 @@
       </c>
       <c r="H16" s="2">
         <f>SUM(H5:H10) - H7</f>
-        <v>40.1546</v>
+        <v>50.0546</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K16" s="3">
-        <f>SUM(K5:K10) - K7</f>
-        <v>43.12</v>
+        <f>SUM(K5:K13) - K7</f>
+        <v>73.14</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="2"/>
@@ -18118,12 +18113,15 @@
       <c r="O1003" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="M5"/>
     <hyperlink r:id="rId2" ref="M6"/>
     <hyperlink r:id="rId3" ref="M7"/>
     <hyperlink r:id="rId4" ref="M9"/>
-    <hyperlink r:id="rId5" location="description" ref="M10"/>
+    <hyperlink r:id="rId5" ref="M10"/>
     <hyperlink r:id="rId6" ref="O11"/>
     <hyperlink r:id="rId7" ref="O12"/>
     <hyperlink r:id="rId8" ref="O13"/>
